--- a/light distance graph.xlsx
+++ b/light distance graph.xlsx
@@ -604,15 +604,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
+      <xdr:colOff>457199</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:colOff>390524</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -924,7 +924,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
